--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1517759.000094295</v>
+        <v>1517081.179414023</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052318</v>
+        <v>313298.4515052319</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,61 +1382,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>32.88999934163189</v>
+      </c>
+      <c r="T11" t="n">
+        <v>28.03643329293212</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>46.5745892848266</v>
+      </c>
+      <c r="W11" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="H11" t="n">
-        <v>66.64307131377559</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46.21360886079816</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>32.88999934163195</v>
-      </c>
-      <c r="T11" t="n">
-        <v>28.03643329293218</v>
-      </c>
-      <c r="U11" t="n">
-        <v>55.76720738385723</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>122.0492982736044</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>70.88725088945512</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20.56530653072786</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42.84521610603965</v>
+      </c>
+      <c r="V12" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>20.56530653072791</v>
-      </c>
-      <c r="U12" t="n">
-        <v>42.84521610603971</v>
-      </c>
-      <c r="V12" t="n">
-        <v>112.0019936686363</v>
-      </c>
       <c r="W12" t="n">
-        <v>72.32210790215683</v>
+        <v>72.32210790215677</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461584</v>
+        <v>22.93043876461579</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917085</v>
+        <v>122.0492982736044</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420454</v>
+        <v>8.831062059420393</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871257</v>
+        <v>40.97168601871252</v>
       </c>
       <c r="T13" t="n">
-        <v>29.358516861995</v>
+        <v>29.35851686199494</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013459</v>
+        <v>94.27381875013454</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959514</v>
+        <v>50.72653950959509</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448056</v>
+        <v>95.92823141448051</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338777</v>
+        <v>27.53697973338771</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931366</v>
+        <v>22.7587971393136</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="H14" t="n">
-        <v>112.8566801745737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163206</v>
+        <v>23.69738124260095</v>
       </c>
       <c r="T14" t="n">
         <v>28.03643329293229</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.0492982736044</v>
+        <v>96.94291355106381</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>59.59896230682254</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>20.56530653072803</v>
@@ -1746,13 +1746,13 @@
         <v>46.2664452405476</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215694</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="X15" t="n">
         <v>22.93043876461596</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917097</v>
+        <v>122.0492982736044</v>
       </c>
     </row>
     <row r="16">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420567</v>
+        <v>8.831062059420564</v>
       </c>
       <c r="S16" t="n">
         <v>40.97168601871269</v>
@@ -1856,7 +1856,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H17" t="n">
         <v>26.0317220423338</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>49.43169076287295</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,20 +1965,20 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>107.5010219193908</v>
+      </c>
+      <c r="U18" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C20" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927433</v>
       </c>
       <c r="H20" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233374</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>49.43169076287295</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R21" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>101.3644357981252</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C23" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927433</v>
       </c>
       <c r="H23" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233374</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>101.364435798125</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.43169076287301</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="25">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834646</v>
+        <v>14.35531776834645</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646684</v>
+        <v>9.501751719646682</v>
       </c>
       <c r="U26" t="n">
         <v>37.23252581057173</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>10.88660869404883</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442418</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275421</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V27" t="n">
         <v>27.73176366726199</v>
@@ -2700,7 +2700,7 @@
         <v>4.395757191330347</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.2907492610617</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.170083129693</v>
+        <v>161.1700831296929</v>
       </c>
       <c r="C29" t="n">
         <v>137.2883401330384</v>
@@ -2798,19 +2798,19 @@
         <v>124.8550023940869</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134957</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918731</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9102852902861</v>
+        <v>205.910285290286</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033454</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751255</v>
+        <v>27.67892728751249</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834634</v>
+        <v>14.35531776834628</v>
       </c>
       <c r="T29" t="n">
-        <v>9.50175171964657</v>
+        <v>9.501751719646512</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057162</v>
+        <v>37.23252581057156</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610116</v>
@@ -2855,7 +2855,7 @@
         <v>124.9793065776265</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8655570465658</v>
+        <v>146.8655570465657</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3684101703095</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>47.05327154452421</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442304</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U30" t="n">
-        <v>24.3105345327541</v>
+        <v>24.31053453275404</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726187</v>
+        <v>27.73176366726182</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330176</v>
       </c>
       <c r="Y30" t="n">
-        <v>218.9744732055258</v>
+        <v>10.46712888588519</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542696</v>
+        <v>22.43700444542691</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870939</v>
+        <v>10.82383528870933</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684898</v>
+        <v>75.73913717684893</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630953</v>
+        <v>32.19185793630948</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119495</v>
+        <v>77.3935498411949</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102157</v>
+        <v>9.0022981601021</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028047</v>
+        <v>4.22411556602799</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D32" t="n">
         <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F32" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751266</v>
+        <v>27.6789272875126</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834645</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646625</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W32" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y32" t="n">
         <v>169.3684101703096</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442418</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275421</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726199</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887133</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>141.4204865782696</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588536</v>
+        <v>212.83788708426</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U34" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E35" t="n">
         <v>123.385678149771</v>
@@ -3281,7 +3281,7 @@
         <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X35" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="36">
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>99.89135548649703</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514643</v>
+        <v>78.01869069774473</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747017</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E38" t="n">
         <v>123.385678149771</v>
@@ -3518,7 +3518,7 @@
         <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X38" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>25.93022693139633</v>
+        <v>18.61134966514646</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>111.0292697535348</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747017</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657433</v>
+        <v>97.17607510657436</v>
       </c>
       <c r="E41" t="n">
         <v>130.8828275259832</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6031651043605</v>
+        <v>162.6031651043606</v>
       </c>
       <c r="G41" t="n">
         <v>178.2313580027735</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.55359852305903</v>
+        <v>9.553598523059058</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349906</v>
+        <v>80.28369907349909</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011394</v>
+        <v>97.30037929011397</v>
       </c>
       <c r="X41" t="n">
         <v>119.1866297590532</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.6894828827969</v>
+        <v>141.689482882797</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>140.9963546022471</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974929434</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135864</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.462597959748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.0602098893364</v>
+        <v>48.06020988933643</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796953</v>
+        <v>4.512930648796981</v>
       </c>
       <c r="W43" t="n">
-        <v>49.71462255368237</v>
+        <v>49.7146225536824</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657433</v>
+        <v>97.17607510657436</v>
       </c>
       <c r="E44" t="n">
         <v>130.8828275259832</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6031651043605</v>
+        <v>162.6031651043606</v>
       </c>
       <c r="G44" t="n">
         <v>178.2313580027735</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.55359852305903</v>
+        <v>9.553598523059058</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349906</v>
+        <v>80.28369907349909</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011394</v>
+        <v>97.30037929011397</v>
       </c>
       <c r="X44" t="n">
         <v>119.1866297590532</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.6894828827969</v>
+        <v>141.689482882797</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>143.9478756055981</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
-        <v>53.56208139768548</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974929434</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135864</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.0602098893364</v>
+        <v>48.06020988933643</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796953</v>
+        <v>4.512930648796981</v>
       </c>
       <c r="W46" t="n">
-        <v>49.71462255368237</v>
+        <v>49.7146225536824</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.0427099711593</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0427099711593</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D11" t="n">
-        <v>247.0427099711593</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E11" t="n">
-        <v>247.0427099711593</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F11" t="n">
-        <v>247.0427099711593</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G11" t="n">
-        <v>123.760590502872</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H11" t="n">
-        <v>56.4443568525936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I11" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="J11" t="n">
-        <v>127.09041603444</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K11" t="n">
-        <v>127.09041603444</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L11" t="n">
-        <v>175.4876665214274</v>
+        <v>58.16119434887575</v>
       </c>
       <c r="M11" t="n">
-        <v>258.2148925245444</v>
+        <v>140.8884203519927</v>
       </c>
       <c r="N11" t="n">
-        <v>335.4382955160493</v>
+        <v>261.7172256428611</v>
       </c>
       <c r="O11" t="n">
-        <v>371.4488064152296</v>
+        <v>297.7277365420414</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2527588456304</v>
+        <v>418.5565418329098</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444177</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="R11" t="n">
         <v>488.1971930944178</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372137</v>
+        <v>454.9749715372139</v>
       </c>
       <c r="T11" t="n">
-        <v>426.6553419483934</v>
+        <v>426.6553419483935</v>
       </c>
       <c r="U11" t="n">
-        <v>370.3248294394467</v>
+        <v>426.6553419483935</v>
       </c>
       <c r="V11" t="n">
-        <v>247.0427099711593</v>
+        <v>379.6103022667504</v>
       </c>
       <c r="W11" t="n">
-        <v>247.0427099711593</v>
+        <v>256.328182798463</v>
       </c>
       <c r="X11" t="n">
-        <v>247.0427099711593</v>
+        <v>256.328182798463</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.0427099711593</v>
+        <v>133.0460633301757</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.22126207931485</v>
+        <v>81.36722758861069</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J12" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888356</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3309857893938</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1597910802622</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145621</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="O12" t="n">
         <v>403.4867099054305</v>
@@ -5142,28 +5142,28 @@
         <v>488.1971930944178</v>
       </c>
       <c r="R12" t="n">
-        <v>364.9150736261305</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="S12" t="n">
-        <v>364.9150736261305</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="T12" t="n">
-        <v>344.1420367264053</v>
+        <v>467.4241561946927</v>
       </c>
       <c r="U12" t="n">
-        <v>300.8640406596985</v>
+        <v>424.1461601279859</v>
       </c>
       <c r="V12" t="n">
-        <v>187.730713721682</v>
+        <v>300.8640406596986</v>
       </c>
       <c r="W12" t="n">
-        <v>114.6780794770792</v>
+        <v>227.8114064150958</v>
       </c>
       <c r="X12" t="n">
-        <v>91.51602011888137</v>
+        <v>204.649347056898</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.22126207931485</v>
+        <v>81.36722758861069</v>
       </c>
     </row>
     <row r="13">
@@ -5182,64 +5182,64 @@
         <v>9.763943861888356</v>
       </c>
       <c r="E13" t="n">
-        <v>61.94321497989183</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F13" t="n">
-        <v>61.94321497989183</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G13" t="n">
-        <v>61.94321497989183</v>
+        <v>35.1935927680227</v>
       </c>
       <c r="H13" t="n">
-        <v>61.94321497989183</v>
+        <v>35.1935927680227</v>
       </c>
       <c r="I13" t="n">
-        <v>61.94321497989183</v>
+        <v>35.1935927680227</v>
       </c>
       <c r="J13" t="n">
-        <v>61.94321497989183</v>
+        <v>35.1935927680227</v>
       </c>
       <c r="K13" t="n">
-        <v>182.7720202707602</v>
+        <v>35.1935927680227</v>
       </c>
       <c r="L13" t="n">
-        <v>182.7720202707602</v>
+        <v>156.0223980588911</v>
       </c>
       <c r="M13" t="n">
-        <v>182.7720202707602</v>
+        <v>263.0620390629788</v>
       </c>
       <c r="N13" t="n">
-        <v>303.6008255616287</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="O13" t="n">
-        <v>303.6008255616287</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="P13" t="n">
-        <v>316.997991874449</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538477</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473624</v>
+        <v>374.970579647362</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143194</v>
+        <v>333.5850382143191</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769507</v>
+        <v>303.9299706769505</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313602</v>
+        <v>208.70389113136</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337894</v>
+        <v>157.4649623337892</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481909</v>
+        <v>60.56775888481898</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099306</v>
+        <v>32.75262784099301</v>
       </c>
       <c r="Y13" t="n">
         <v>9.763943861888356</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.0427099711592</v>
+        <v>256.328182798463</v>
       </c>
       <c r="C14" t="n">
-        <v>123.7605905028719</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="D14" t="n">
-        <v>123.7605905028719</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="E14" t="n">
-        <v>123.7605905028719</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="F14" t="n">
-        <v>123.7605905028719</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="G14" t="n">
-        <v>123.7605905028719</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H14" t="n">
         <v>9.763943861888356</v>
@@ -5276,52 +5276,52 @@
         <v>9.763943861888356</v>
       </c>
       <c r="J14" t="n">
-        <v>127.0904160344399</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K14" t="n">
-        <v>243.8388027136283</v>
+        <v>130.5927491527568</v>
       </c>
       <c r="L14" t="n">
-        <v>292.2360532006156</v>
+        <v>251.4215544436252</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9632792037326</v>
+        <v>372.2503597344935</v>
       </c>
       <c r="N14" t="n">
-        <v>452.1866821952376</v>
+        <v>449.4737627259985</v>
       </c>
       <c r="O14" t="n">
-        <v>488.1971930944178</v>
+        <v>485.4842736251788</v>
       </c>
       <c r="P14" t="n">
-        <v>488.1971930944178</v>
+        <v>488.0239675444178</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.1971930944178</v>
+        <v>488.0239675444178</v>
       </c>
       <c r="R14" t="n">
         <v>488.1971930944178</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372137</v>
+        <v>464.2604443645178</v>
       </c>
       <c r="T14" t="n">
-        <v>426.6553419483932</v>
+        <v>435.9408147756973</v>
       </c>
       <c r="U14" t="n">
-        <v>370.3248294394465</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="V14" t="n">
-        <v>370.3248294394465</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="W14" t="n">
-        <v>370.3248294394465</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="X14" t="n">
-        <v>370.3248294394465</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.3248294394465</v>
+        <v>379.6103022667503</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I15" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J15" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="K15" t="n">
-        <v>9.763943861888356</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3309857893938</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M15" t="n">
-        <v>249.1597910802622</v>
+        <v>288.0409375000536</v>
       </c>
       <c r="N15" t="n">
-        <v>369.9885963711305</v>
+        <v>367.3683878035494</v>
       </c>
       <c r="O15" t="n">
         <v>488.1971930944178</v>
@@ -5376,31 +5376,31 @@
         <v>488.1971930944178</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.9986212547556</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="R15" t="n">
-        <v>481.9986212547556</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="S15" t="n">
-        <v>421.7976492276621</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="T15" t="n">
-        <v>401.0246123279368</v>
+        <v>467.4241561946925</v>
       </c>
       <c r="U15" t="n">
-        <v>357.7466162612299</v>
+        <v>424.1461601279856</v>
       </c>
       <c r="V15" t="n">
-        <v>311.0128331899697</v>
+        <v>377.4123770567254</v>
       </c>
       <c r="W15" t="n">
-        <v>237.9601989453668</v>
+        <v>254.1302575884381</v>
       </c>
       <c r="X15" t="n">
-        <v>214.7981395871688</v>
+        <v>230.9681982302401</v>
       </c>
       <c r="Y15" t="n">
-        <v>185.5033815476022</v>
+        <v>107.6860787619528</v>
       </c>
     </row>
     <row r="16">
@@ -5416,43 +5416,43 @@
         <v>9.763943861888356</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888356</v>
+        <v>58.47177103179086</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888356</v>
+        <v>58.47177103179086</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="J16" t="n">
-        <v>9.763943861888356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="K16" t="n">
-        <v>9.763943861888356</v>
+        <v>234.2016138445032</v>
       </c>
       <c r="L16" t="n">
-        <v>9.763943861888356</v>
+        <v>355.0304191353716</v>
       </c>
       <c r="M16" t="n">
-        <v>130.5927491527568</v>
+        <v>355.0304191353716</v>
       </c>
       <c r="N16" t="n">
-        <v>251.4215544436252</v>
+        <v>355.0304191353716</v>
       </c>
       <c r="O16" t="n">
-        <v>372.2503597344935</v>
+        <v>355.0304191353716</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538486</v>
+        <v>355.0304191353716</v>
       </c>
       <c r="Q16" t="n">
         <v>383.8908443538486</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589147</v>
+        <v>315.9417875589149</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558574</v>
+        <v>286.3198544558575</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618421</v>
       </c>
       <c r="E17" t="n">
-        <v>218.146617601757</v>
+        <v>218.1466176017571</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130079</v>
+        <v>134.9956418130081</v>
       </c>
       <c r="G17" t="n">
         <v>36.05861259151845</v>
@@ -5510,40 +5510,40 @@
         <v>9.763943861888356</v>
       </c>
       <c r="I17" t="n">
-        <v>89.24480594465246</v>
+        <v>53.69130131193812</v>
       </c>
       <c r="J17" t="n">
-        <v>89.24480594465246</v>
+        <v>53.69130131193812</v>
       </c>
       <c r="K17" t="n">
-        <v>89.24480594465246</v>
+        <v>53.69130131193812</v>
       </c>
       <c r="L17" t="n">
-        <v>137.6420564316398</v>
+        <v>102.0885517989255</v>
       </c>
       <c r="M17" t="n">
-        <v>220.3692824347568</v>
+        <v>184.8157778020425</v>
       </c>
       <c r="N17" t="n">
-        <v>297.5926854262617</v>
+        <v>262.0391807935475</v>
       </c>
       <c r="O17" t="n">
-        <v>333.603196325442</v>
+        <v>298.0496916927277</v>
       </c>
       <c r="P17" t="n">
-        <v>333.603196325442</v>
+        <v>298.0496916927277</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.603196325442</v>
+        <v>298.0496916927277</v>
       </c>
       <c r="R17" t="n">
-        <v>333.603196325442</v>
+        <v>298.0496916927277</v>
       </c>
       <c r="S17" t="n">
-        <v>333.603196325442</v>
+        <v>390.7209271994664</v>
       </c>
       <c r="T17" t="n">
-        <v>431.0794622203934</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="U17" t="n">
         <v>488.1971930944178</v>
@@ -5552,13 +5552,13 @@
         <v>488.1971930944178</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190493</v>
+        <v>471.0086272190495</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376815</v>
+        <v>431.7127376376818</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858655</v>
+        <v>369.6866933858657</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C18" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D18" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E18" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F18" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G18" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H18" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J18" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167978</v>
+        <v>43.26205739618834</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091852</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="M18" t="n">
-        <v>288.0409375000536</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="N18" t="n">
-        <v>408.869742790922</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="O18" t="n">
-        <v>488.1971930944178</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="P18" t="n">
         <v>488.1971930944178</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.9986212547556</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="R18" t="n">
-        <v>358.7165017864683</v>
+        <v>364.9150736261305</v>
       </c>
       <c r="S18" t="n">
-        <v>235.4343823181809</v>
+        <v>364.9150736261305</v>
       </c>
       <c r="T18" t="n">
-        <v>235.4343823181809</v>
+        <v>256.328182798463</v>
       </c>
       <c r="U18" t="n">
-        <v>235.4343823181809</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="V18" t="n">
-        <v>235.4343823181809</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="W18" t="n">
-        <v>235.4343823181809</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="X18" t="n">
-        <v>112.1522628498936</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.1522628498936</v>
+        <v>133.0460633301757</v>
       </c>
     </row>
     <row r="19">
@@ -5729,58 +5729,58 @@
         <v>315.9417875589149</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558576</v>
+        <v>286.3198544558575</v>
       </c>
       <c r="D20" t="n">
         <v>269.2568483618422</v>
       </c>
       <c r="E20" t="n">
-        <v>218.146617601757</v>
+        <v>218.1466176017571</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130081</v>
+        <v>134.9956418130082</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151845</v>
+        <v>36.0586125915184</v>
       </c>
       <c r="H20" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465246</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J20" t="n">
-        <v>146.3625368186768</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K20" t="n">
-        <v>146.3625368186768</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L20" t="n">
-        <v>194.7597873056642</v>
+        <v>58.16119434887575</v>
       </c>
       <c r="M20" t="n">
-        <v>277.4870133087812</v>
+        <v>140.8884203519927</v>
       </c>
       <c r="N20" t="n">
-        <v>354.7104163002861</v>
+        <v>218.1118233434977</v>
       </c>
       <c r="O20" t="n">
-        <v>390.7209271994664</v>
+        <v>254.122334242678</v>
       </c>
       <c r="P20" t="n">
-        <v>390.7209271994664</v>
+        <v>254.122334242678</v>
       </c>
       <c r="Q20" t="n">
-        <v>390.7209271994664</v>
+        <v>374.9511395335464</v>
       </c>
       <c r="R20" t="n">
-        <v>390.7209271994664</v>
+        <v>374.9511395335464</v>
       </c>
       <c r="S20" t="n">
-        <v>390.7209271994664</v>
+        <v>374.9511395335464</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944178</v>
+        <v>418.1743935494821</v>
       </c>
       <c r="U20" t="n">
         <v>488.1971930944178</v>
@@ -5789,10 +5789,10 @@
         <v>488.1971930944178</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190495</v>
+        <v>471.0086272190492</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376818</v>
+        <v>431.7127376376817</v>
       </c>
       <c r="Y20" t="n">
         <v>369.6866933858657</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E21" t="n">
-        <v>235.4343823181809</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F21" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G21" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H21" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J21" t="n">
         <v>9.763943861888356</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167978</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2121322091852</v>
+        <v>48.6450902816798</v>
       </c>
       <c r="M21" t="n">
-        <v>288.0409375000536</v>
+        <v>169.4738955725482</v>
       </c>
       <c r="N21" t="n">
-        <v>288.0409375000536</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="O21" t="n">
         <v>403.4867099054305</v>
@@ -5856,25 +5856,25 @@
         <v>358.7165017864683</v>
       </c>
       <c r="S21" t="n">
-        <v>358.7165017864683</v>
+        <v>235.4343823181809</v>
       </c>
       <c r="T21" t="n">
-        <v>358.7165017864683</v>
+        <v>235.4343823181809</v>
       </c>
       <c r="U21" t="n">
-        <v>358.7165017864683</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="V21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="W21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="X21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.7165017864683</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.941787558915</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558577</v>
+        <v>286.3198544558571</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618423</v>
+        <v>269.2568483618417</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017573</v>
+        <v>218.1466176017568</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130083</v>
+        <v>134.9956418130079</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151846</v>
+        <v>36.05861259151839</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="J23" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="K23" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="L23" t="n">
-        <v>58.16119434887572</v>
+        <v>58.16119434887573</v>
       </c>
       <c r="M23" t="n">
         <v>140.8884203519927</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1118233434976</v>
+        <v>261.717225642861</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1223342426779</v>
+        <v>297.7277365420412</v>
       </c>
       <c r="P23" t="n">
-        <v>254.1223342426779</v>
+        <v>297.7277365420412</v>
       </c>
       <c r="Q23" t="n">
-        <v>374.9511395335464</v>
+        <v>418.5565418329095</v>
       </c>
       <c r="R23" t="n">
-        <v>390.7209271994667</v>
+        <v>418.5565418329095</v>
       </c>
       <c r="S23" t="n">
-        <v>390.7209271994667</v>
+        <v>418.5565418329095</v>
       </c>
       <c r="T23" t="n">
-        <v>488.1971930944181</v>
+        <v>418.5565418329095</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944172</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944172</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190496</v>
+        <v>471.0086272190488</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376819</v>
+        <v>431.7127376376811</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858658</v>
+        <v>369.686693385865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="C24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="D24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="E24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="F24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="G24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="H24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="K24" t="n">
-        <v>48.64509028167979</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L24" t="n">
         <v>167.2121322091852</v>
       </c>
       <c r="M24" t="n">
-        <v>282.6579046145624</v>
+        <v>282.6579046145617</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145624</v>
+        <v>403.48670990543</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054309</v>
+        <v>403.48670990543</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944172</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547559</v>
+        <v>481.998621254755</v>
       </c>
       <c r="R24" t="n">
-        <v>358.7165017864685</v>
+        <v>481.998621254755</v>
       </c>
       <c r="S24" t="n">
-        <v>358.7165017864685</v>
+        <v>358.7165017864678</v>
       </c>
       <c r="T24" t="n">
-        <v>358.7165017864685</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="U24" t="n">
-        <v>358.7165017864685</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="V24" t="n">
-        <v>358.7165017864685</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="W24" t="n">
-        <v>358.7165017864685</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="X24" t="n">
-        <v>235.4343823181811</v>
+        <v>133.0460633301755</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.5033815476023</v>
+        <v>9.763943861888345</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888345</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>407.3716927926918</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307865</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0336789607407</v>
+        <v>64.0336789607405</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792161</v>
+        <v>171.750973479216</v>
       </c>
       <c r="K26" t="n">
         <v>377.2303396281795</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908259</v>
+        <v>636.4155757908258</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696021</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136765</v>
@@ -6266,7 +6266,7 @@
         <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.328534067629</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.8307609337019</v>
+        <v>47.07174098754491</v>
       </c>
       <c r="C27" t="n">
-        <v>370.4184866666656</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D27" t="n">
-        <v>209.6383704276973</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890318</v>
+        <v>74.95631296890319</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964086</v>
@@ -6324,31 +6324,31 @@
         <v>800.7871810738252</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738252</v>
+        <v>601.1702764015108</v>
       </c>
       <c r="T27" t="n">
-        <v>798.7360447531763</v>
+        <v>384.0513044766798</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1799492655458</v>
+        <v>144.4273733848672</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1680667733619</v>
+        <v>116.4154908926833</v>
       </c>
       <c r="W27" t="n">
-        <v>691.8373331078353</v>
+        <v>62.08475722715674</v>
       </c>
       <c r="X27" t="n">
-        <v>687.3971743287137</v>
+        <v>57.64459844803518</v>
       </c>
       <c r="Y27" t="n">
-        <v>559.8307609337019</v>
+        <v>47.07174098754491</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80201537227629</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J28" t="n">
-        <v>175.8896867706226</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K28" t="n">
-        <v>175.8896867706226</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="L28" t="n">
-        <v>175.8896867706226</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="M28" t="n">
-        <v>270.228498281052</v>
+        <v>222.6454168959491</v>
       </c>
       <c r="N28" t="n">
-        <v>270.228498281052</v>
+        <v>222.6454168959491</v>
       </c>
       <c r="O28" t="n">
         <v>270.228498281052</v>
@@ -6421,13 +6421,13 @@
         <v>127.610483283784</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388995</v>
+        <v>49.43518041388997</v>
       </c>
       <c r="X28" t="n">
         <v>40.34194994914019</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300261</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567895</v>
+        <v>885.8553792567882</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223583</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218575</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926927</v>
+        <v>407.3716927926915</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307876</v>
+        <v>199.3815056307865</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074059</v>
+        <v>64.03367896074053</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792162</v>
+        <v>171.7509734792163</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281799</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908261</v>
+        <v>636.4155757908263</v>
       </c>
       <c r="M29" t="n">
-        <v>929.930787469602</v>
+        <v>929.9307874696024</v>
       </c>
       <c r="N29" t="n">
         <v>1217.942176136766</v>
@@ -6479,10 +6479,10 @@
         <v>1464.740672711605</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R29" t="n">
         <v>1803.758327455587</v>
@@ -6491,22 +6491,22 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467714</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781643</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.07516654911174</v>
+        <v>83.60372366479277</v>
       </c>
       <c r="C30" t="n">
         <v>36.07516654911174</v>
@@ -6561,31 +6561,31 @@
         <v>800.7871810738252</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738252</v>
+        <v>601.1702764015108</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531764</v>
+        <v>384.0513044766798</v>
       </c>
       <c r="U30" t="n">
-        <v>774.179949265546</v>
+        <v>359.4952089890494</v>
       </c>
       <c r="V30" t="n">
-        <v>746.1680667733623</v>
+        <v>331.4833264968658</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7694975036536</v>
+        <v>277.1525928313393</v>
       </c>
       <c r="X30" t="n">
-        <v>257.26150312035</v>
+        <v>272.7124340522179</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07516654911174</v>
+        <v>262.1395765917279</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="I31" t="n">
-        <v>83.8020153722764</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8020153722764</v>
+        <v>82.07054306251814</v>
       </c>
       <c r="K31" t="n">
-        <v>83.8020153722764</v>
+        <v>227.0524740396264</v>
       </c>
       <c r="L31" t="n">
-        <v>263.4681531738385</v>
+        <v>227.0524740396264</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2284982810512</v>
+        <v>227.0524740396264</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.2284982810508</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270845</v>
+        <v>247.5648574270842</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687922</v>
+        <v>236.631690468792</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022781</v>
+        <v>160.1275115022779</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837836</v>
+        <v>127.6104832837835</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388973</v>
+        <v>49.43518041388961</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914007</v>
+        <v>40.34194994914002</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6677,46 +6677,46 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.855379256789</v>
+        <v>885.8553792567891</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223576</v>
+        <v>759.7392152223578</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218567</v>
+        <v>599.5758265218569</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926918</v>
+        <v>407.3716927926921</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307865</v>
+        <v>199.3815056307869</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0336789607407</v>
+        <v>64.03367896074087</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7509734792163</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281798</v>
+        <v>377.23033962818</v>
       </c>
       <c r="L32" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908263</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696018</v>
+        <v>929.9307874696021</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.235767148034</v>
@@ -6737,7 +6737,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X32" t="n">
         <v>1358.407736259861</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>359.8796463787235</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C33" t="n">
-        <v>359.8796463787235</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D33" t="n">
-        <v>359.8796463787235</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E33" t="n">
-        <v>186.3164425001379</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F33" t="n">
-        <v>186.3164425001379</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G33" t="n">
         <v>36.07516654911174</v>
@@ -6798,31 +6798,31 @@
         <v>800.7871810738252</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531763</v>
+        <v>792.5374729135141</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1799492655458</v>
+        <v>767.9813774258836</v>
       </c>
       <c r="V33" t="n">
-        <v>746.1680667733619</v>
+        <v>524.9016593295177</v>
       </c>
       <c r="W33" t="n">
-        <v>691.8373331078353</v>
+        <v>255.503090059809</v>
       </c>
       <c r="X33" t="n">
-        <v>548.9883567661489</v>
+        <v>251.0629312806875</v>
       </c>
       <c r="Y33" t="n">
-        <v>538.4154993056586</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="34">
@@ -6856,49 +6856,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="J34" t="n">
-        <v>40.00438006699258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K34" t="n">
-        <v>184.9863110441007</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L34" t="n">
-        <v>184.9863110441007</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M34" t="n">
-        <v>184.9863110441007</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="N34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="O34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="P34" t="n">
-        <v>184.9863110441007</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="R34" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V34" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388995</v>
+        <v>49.43518041388984</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914013</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102303</v>
+        <v>773.6196706102301</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361759</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711636</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400818</v>
+        <v>455.2591985400816</v>
       </c>
       <c r="F35" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803358</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
         <v>26.31122268722338</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967348</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968654</v>
+        <v>56.86686252849236</v>
       </c>
       <c r="K35" t="n">
-        <v>204.2335233968654</v>
+        <v>297.1705445745434</v>
       </c>
       <c r="L35" t="n">
-        <v>498.2430754565993</v>
+        <v>345.5677950615307</v>
       </c>
       <c r="M35" t="n">
-        <v>580.9703014597162</v>
+        <v>671.1691758159201</v>
       </c>
       <c r="N35" t="n">
-        <v>658.1937044512212</v>
+        <v>748.392578807425</v>
       </c>
       <c r="O35" t="n">
-        <v>939.8165169231479</v>
+        <v>1030.015391279352</v>
       </c>
       <c r="P35" t="n">
-        <v>1111.586142006679</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="Q35" t="n">
-        <v>1269.531001360107</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360107</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="T35" t="n">
         <v>1315.561134361169</v>
@@ -6974,13 +6974,13 @@
         <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081781</v>
+        <v>900.8863438081778</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>671.3235350385593</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C36" t="n">
-        <v>671.3235350385593</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D36" t="n">
-        <v>510.543418799591</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E36" t="n">
-        <v>336.9802149210055</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F36" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G36" t="n">
         <v>26.31122268722338</v>
@@ -7017,7 +7017,7 @@
         <v>26.31122268722338</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7035,31 +7035,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="S36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="T36" t="n">
-        <v>690.1228781346667</v>
+        <v>567.7056934474432</v>
       </c>
       <c r="U36" t="n">
-        <v>690.1228781346667</v>
+        <v>567.7056934474432</v>
       </c>
       <c r="V36" t="n">
-        <v>690.1228781346667</v>
+        <v>324.6259753510773</v>
       </c>
       <c r="W36" t="n">
-        <v>671.3235350385593</v>
+        <v>245.819217070527</v>
       </c>
       <c r="X36" t="n">
-        <v>671.3235350385593</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y36" t="n">
-        <v>671.3235350385593</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="37">
@@ -7108,28 +7108,28 @@
         <v>26.31122268722338</v>
       </c>
       <c r="O37" t="n">
-        <v>26.31122268722338</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="P37" t="n">
-        <v>26.31122268722338</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847934</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W37" t="n">
         <v>26.31122268722338</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102302</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.475970136176</v>
+        <v>670.4759701361763</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400819</v>
+        <v>455.2591985400821</v>
       </c>
       <c r="F38" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
         <v>26.31122268722338</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967348</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="J38" t="n">
-        <v>90.45740539857886</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="K38" t="n">
-        <v>90.45740539857886</v>
+        <v>274.0370826157245</v>
       </c>
       <c r="L38" t="n">
-        <v>138.8546558855662</v>
+        <v>568.0466346754583</v>
       </c>
       <c r="M38" t="n">
-        <v>221.5818818886831</v>
+        <v>766.1533612388172</v>
       </c>
       <c r="N38" t="n">
-        <v>544.4175864529345</v>
+        <v>843.3767642303221</v>
       </c>
       <c r="O38" t="n">
-        <v>826.0403989248613</v>
+        <v>879.3872751295023</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.239265802039</v>
+        <v>1111.58614200668</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155466</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="R38" t="n">
         <v>1269.531001360107</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666531</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T38" t="n">
         <v>1315.561134361169</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X38" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081778</v>
+        <v>900.8863438081781</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.6545428047772</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="C39" t="n">
-        <v>360.6545428047772</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="D39" t="n">
         <v>199.8744265658089</v>
@@ -7254,7 +7254,7 @@
         <v>26.31122268722338</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701477</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7281,22 +7281,22 @@
         <v>791.0232372119365</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119365</v>
+        <v>573.9042652871054</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119365</v>
+        <v>573.9042652871054</v>
       </c>
       <c r="V39" t="n">
-        <v>791.0232372119365</v>
+        <v>330.8245471907395</v>
       </c>
       <c r="W39" t="n">
-        <v>764.8310887963846</v>
+        <v>312.025204094632</v>
       </c>
       <c r="X39" t="n">
-        <v>764.8310887963846</v>
+        <v>312.025204094632</v>
       </c>
       <c r="Y39" t="n">
-        <v>539.1903957317122</v>
+        <v>199.8744265658089</v>
       </c>
     </row>
     <row r="40">
@@ -7309,64 +7309,64 @@
         <v>26.31122268722338</v>
       </c>
       <c r="C40" t="n">
-        <v>107.1309150977172</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W40" t="n">
         <v>26.31122268722338</v>
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629598</v>
+        <v>820.9115219629606</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311155</v>
+        <v>710.1949433311161</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083132</v>
+        <v>612.0372917083139</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194413</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019055</v>
+        <v>315.5867941019059</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5551193516298</v>
+        <v>135.5551193516299</v>
       </c>
       <c r="H41" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I41" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379547</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015557</v>
+        <v>261.0473092568137</v>
       </c>
       <c r="L41" t="n">
-        <v>472.522504688543</v>
+        <v>309.4445597438011</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4563710556013</v>
+        <v>630.3619094372143</v>
       </c>
       <c r="N41" t="n">
-        <v>919.8698977374025</v>
+        <v>707.5853124287192</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8804086365827</v>
+        <v>981.7859470181959</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.65709763131</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q41" t="n">
         <v>1331.179779102288</v>
@@ -7436,25 +7436,25 @@
         <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.294850848452</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.640155142398</v>
+        <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613611</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.262298209455</v>
+        <v>1219.262298209456</v>
       </c>
       <c r="X41" t="n">
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186975</v>
+        <v>955.7510733186984</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.3581955992173</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C42" t="n">
-        <v>188.945921332181</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J42" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300419</v>
+        <v>67.0469515130042</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6139934405095</v>
+        <v>185.6139934405096</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412892</v>
+        <v>368.7308031412893</v>
       </c>
       <c r="N42" t="n">
-        <v>575.1140594806553</v>
+        <v>575.1140594806554</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1673364289387</v>
+        <v>708.1673364289388</v>
       </c>
       <c r="P42" t="n">
         <v>792.877819617926</v>
@@ -7512,28 +7512,28 @@
         <v>792.877819617926</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>657.1572765725974</v>
       </c>
       <c r="S42" t="n">
-        <v>792.877819617926</v>
+        <v>514.7367163683074</v>
       </c>
       <c r="T42" t="n">
-        <v>792.877819617926</v>
+        <v>297.6177444434763</v>
       </c>
       <c r="U42" t="n">
-        <v>792.877819617926</v>
+        <v>297.6177444434763</v>
       </c>
       <c r="V42" t="n">
-        <v>792.8244495373712</v>
+        <v>297.5643743629215</v>
       </c>
       <c r="W42" t="n">
-        <v>766.4522282834736</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X42" t="n">
-        <v>766.4522282834736</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y42" t="n">
-        <v>556.8940485261523</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.28855296619997</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="R43" t="n">
-        <v>126.2972742995639</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4867779132287</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132287</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834343</v>
+        <v>82.94111135834351</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147782</v>
+        <v>78.38259555147786</v>
       </c>
       <c r="W43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629603</v>
+        <v>820.9115219629613</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311161</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083137</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194414</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019055</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5551193516298</v>
+        <v>135.5551193516299</v>
       </c>
       <c r="H44" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I44" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
         <v>191.2437500379547</v>
@@ -7652,46 +7652,46 @@
         <v>424.1252542015556</v>
       </c>
       <c r="L44" t="n">
-        <v>710.7126283788393</v>
+        <v>472.5225046885429</v>
       </c>
       <c r="M44" t="n">
-        <v>1031.629978072253</v>
+        <v>793.4398543819564</v>
       </c>
       <c r="N44" t="n">
-        <v>1347.043504754054</v>
+        <v>1108.853381063758</v>
       </c>
       <c r="O44" t="n">
-        <v>1383.054015653234</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="P44" t="n">
-        <v>1383.054015653234</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q44" t="n">
-        <v>1383.054015653234</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.29025466064</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.640155142398</v>
+        <v>1398.640155142399</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.545509613611</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.262298209456</v>
+        <v>1219.262298209457</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.871763099301</v>
+        <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.751073318698</v>
+        <v>955.7510733186991</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>766.4522282834735</v>
+        <v>178.407081044239</v>
       </c>
       <c r="C45" t="n">
-        <v>577.0399540164372</v>
+        <v>178.407081044239</v>
       </c>
       <c r="D45" t="n">
-        <v>416.2598377774689</v>
+        <v>178.407081044239</v>
       </c>
       <c r="E45" t="n">
-        <v>242.6966338988833</v>
+        <v>178.407081044239</v>
       </c>
       <c r="F45" t="n">
-        <v>82.26891761612742</v>
+        <v>178.407081044239</v>
       </c>
       <c r="G45" t="n">
-        <v>82.26891761612742</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300419</v>
+        <v>67.04695151300422</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6139934405095</v>
+        <v>185.6139934405096</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412892</v>
+        <v>368.7308031412894</v>
       </c>
       <c r="N45" t="n">
-        <v>575.1140594806553</v>
+        <v>575.1140594806554</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1673364289387</v>
+        <v>708.1673364289388</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179259</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179259</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8778196179259</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="U45" t="n">
-        <v>792.8778196179259</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="V45" t="n">
-        <v>792.824449537371</v>
+        <v>593.2075448650569</v>
       </c>
       <c r="W45" t="n">
-        <v>766.4522282834735</v>
+        <v>323.8089755953482</v>
       </c>
       <c r="X45" t="n">
-        <v>766.4522282834735</v>
+        <v>323.8089755953482</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.4522282834735</v>
+        <v>323.8089755953482</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132287</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132287</v>
+        <v>126.2972742995641</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132287</v>
+        <v>126.2972742995641</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132287</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132287</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834343</v>
+        <v>82.94111135834351</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147782</v>
+        <v>78.38259555147786</v>
       </c>
       <c r="W46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.16580509321279</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>234.8671368015997</v>
       </c>
       <c r="M12" t="n">
         <v>238.8597051383723</v>
       </c>
       <c r="N12" t="n">
-        <v>135.9824011957679</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222147</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9015,10 +9015,10 @@
         <v>238.8597051383723</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518977</v>
+        <v>182.274660558592</v>
       </c>
       <c r="O15" t="n">
-        <v>240.2281564014256</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P15" t="n">
         <v>120.7977294433386</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>165.9360666291091</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9255,10 +9255,10 @@
         <v>224.1952211518977</v>
       </c>
       <c r="O18" t="n">
-        <v>200.954271128909</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P18" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5398549409795</v>
       </c>
       <c r="M21" t="n">
         <v>238.8597051383723</v>
       </c>
       <c r="N21" t="n">
-        <v>102.1459228782932</v>
+        <v>216.4732047389134</v>
       </c>
       <c r="O21" t="n">
-        <v>237.4374247671728</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9723,13 +9723,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>233.4222981833307</v>
+        <v>233.42229818333</v>
       </c>
       <c r="N24" t="n">
-        <v>102.1459228782932</v>
+        <v>224.1952211518975</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222147</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029786</v>
+        <v>57.65546642937406</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063241</v>
+        <v>155.823021706324</v>
       </c>
       <c r="D11" t="n">
         <v>143.3896839673725</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867813</v>
       </c>
       <c r="F11" t="n">
         <v>208.8167739651587</v>
       </c>
       <c r="G11" t="n">
-        <v>102.3956685899672</v>
+        <v>224.4449668635716</v>
       </c>
       <c r="H11" t="n">
-        <v>85.88595866285547</v>
+        <v>152.529029976631</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.2136088607981</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.76720738385716</v>
       </c>
       <c r="V11" t="n">
-        <v>4.448009660692804</v>
+        <v>79.9227186494706</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509121</v>
+        <v>21.46468987730762</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198513</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435951</v>
+        <v>65.85379346999062</v>
       </c>
     </row>
     <row r="12">
@@ -23507,10 +23507,10 @@
         <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635718</v>
+        <v>102.3956685899673</v>
       </c>
       <c r="H14" t="n">
-        <v>39.67234980205748</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I14" t="n">
         <v>46.21360886079827</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.192618099031105</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804722.2259213518</v>
+        <v>804722.2259213522</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>705545.5961411678</v>
       </c>
       <c r="C2" t="n">
-        <v>705545.5961411678</v>
+        <v>705545.5961411679</v>
       </c>
       <c r="D2" t="n">
-        <v>705545.5961411678</v>
+        <v>705545.5961411677</v>
       </c>
       <c r="E2" t="n">
-        <v>607992.0712163831</v>
+        <v>607992.0712163835</v>
       </c>
       <c r="F2" t="n">
-        <v>607992.0712163833</v>
+        <v>607992.0712163829</v>
       </c>
       <c r="G2" t="n">
         <v>706974.839086829</v>
       </c>
       <c r="H2" t="n">
-        <v>706974.8390868289</v>
+        <v>706974.8390868288</v>
       </c>
       <c r="I2" t="n">
         <v>706974.839086829</v>
       </c>
       <c r="J2" t="n">
+        <v>706974.8390868289</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706974.8390868282</v>
+      </c>
+      <c r="L2" t="n">
         <v>706974.8390868284</v>
       </c>
-      <c r="K2" t="n">
-        <v>706974.8390868283</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706974.8390868286</v>
-      </c>
       <c r="M2" t="n">
+        <v>706974.8390868288</v>
+      </c>
+      <c r="N2" t="n">
         <v>706974.839086829</v>
       </c>
-      <c r="N2" t="n">
-        <v>706974.8390868295</v>
-      </c>
       <c r="O2" t="n">
+        <v>706974.8390868289</v>
+      </c>
+      <c r="P2" t="n">
         <v>706974.8390868285</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706974.8390868288</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107728</v>
+        <v>155188.0488107729</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>101197.8463474378</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097992</v>
+        <v>28140.8613309799</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>424916.7517290887</v>
       </c>
       <c r="K4" t="n">
-        <v>424916.7517290889</v>
+        <v>424916.751729089</v>
       </c>
       <c r="L4" t="n">
-        <v>424916.7517290887</v>
+        <v>424916.7517290888</v>
       </c>
       <c r="M4" t="n">
         <v>424375.1958291387</v>
@@ -26485,10 +26485,10 @@
         <v>36660.36444407673</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407673</v>
+        <v>36660.36444407674</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
@@ -26509,7 +26509,7 @@
         <v>43896.40868247331</v>
       </c>
       <c r="P5" t="n">
-        <v>43896.40868247331</v>
+        <v>43896.40868247332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209952.8419517525</v>
+        <v>209948.3755675473</v>
       </c>
       <c r="C6" t="n">
-        <v>209952.8419517525</v>
+        <v>209948.3755675475</v>
       </c>
       <c r="D6" t="n">
-        <v>209952.8419517525</v>
+        <v>209948.3755675472</v>
       </c>
       <c r="E6" t="n">
-        <v>-48656.80473438487</v>
+        <v>-48966.12588397984</v>
       </c>
       <c r="F6" t="n">
-        <v>226716.2423501831</v>
+        <v>226406.9212005876</v>
       </c>
       <c r="G6" t="n">
         <v>143363.151663879</v>
       </c>
       <c r="H6" t="n">
-        <v>244560.9980113168</v>
+        <v>244560.9980113167</v>
       </c>
       <c r="I6" t="n">
         <v>244560.9980113169</v>
       </c>
       <c r="J6" t="n">
-        <v>79289.45489614425</v>
+        <v>79289.4548961446</v>
       </c>
       <c r="K6" t="n">
-        <v>234477.5037069168</v>
+        <v>234477.5037069166</v>
       </c>
       <c r="L6" t="n">
-        <v>133279.6573594795</v>
+        <v>133279.6573594791</v>
       </c>
       <c r="M6" t="n">
-        <v>211341.5780218802</v>
+        <v>211341.5780218801</v>
       </c>
       <c r="N6" t="n">
-        <v>239482.4393528607</v>
+        <v>239482.4393528602</v>
       </c>
       <c r="O6" t="n">
-        <v>169886.1423890847</v>
+        <v>169886.1423890851</v>
       </c>
       <c r="P6" t="n">
-        <v>238603.1412214866</v>
+        <v>238603.1412214863</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="H2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26716,10 +26716,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26777,7 +26777,7 @@
         <v>103.8405771010907</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
     </row>
     <row r="4">
@@ -26808,7 +26808,7 @@
         <v>122.0492982736044</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="J4" t="n">
         <v>450.9395818638968</v>
@@ -26820,16 +26820,16 @@
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
-        <v>352.0725636651599</v>
+        <v>352.07256366516</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0725636651599</v>
+        <v>352.07256366516</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26923,7 @@
         <v>126.4973079342974</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.1760766637249</v>
+        <v>35.17607666372487</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.8902835902925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>194.3824756748548</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3824756748548</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156963</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.04586090844792</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.47210820805038</v>
+        <v>135.5982222085226</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748548</v>
+        <v>158.8970641220474</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S11" t="n">
         <v>194.3824756748548</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>116.6309006349108</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R12" t="n">
-        <v>12.31403934127076</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
         <v>191.4841495043256</v>
@@ -28226,7 +28226,7 @@
         <v>194.3824756748548</v>
       </c>
       <c r="V12" t="n">
-        <v>128.646927246766</v>
+        <v>118.5996226417978</v>
       </c>
       <c r="W12" t="n">
         <v>194.3824756748548</v>
@@ -28235,7 +28235,7 @@
         <v>194.3824756748548</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748548</v>
+        <v>101.3349878604212</v>
       </c>
     </row>
     <row r="13">
@@ -28254,13 +28254,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748548</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H13" t="n">
         <v>165.7816030517371</v>
@@ -28272,25 +28272,25 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>188.5200605953729</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383527</v>
+        <v>153.4855082474397</v>
       </c>
       <c r="M13" t="n">
-        <v>24.4623589180015</v>
+        <v>132.58320841708</v>
       </c>
       <c r="N13" t="n">
         <v>137.8328896397045</v>
       </c>
       <c r="O13" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P13" t="n">
-        <v>71.42894350223887</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748548</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R13" t="n">
         <v>194.3824756748548</v>
@@ -28348,31 +28348,31 @@
         <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
+        <v>75.87088762177223</v>
+      </c>
+      <c r="K14" t="n">
+        <v>127.4115402197614</v>
+      </c>
+      <c r="L14" t="n">
+        <v>73.16318667058688</v>
+      </c>
+      <c r="M14" t="n">
+        <v>38.48644372500142</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16.11427132808892</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>88.55297193870592</v>
+      </c>
+      <c r="R14" t="n">
         <v>194.3824756748546</v>
-      </c>
-      <c r="K14" t="n">
-        <v>123.2899052584684</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13.54892393491821</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>88.55297193870595</v>
-      </c>
-      <c r="R14" t="n">
-        <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
         <v>194.3824756748546</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.70119612406128</v>
+        <v>79.80758084660192</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
-        <v>131.8851871975031</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
         <v>194.3824756748546</v>
@@ -28466,13 +28466,13 @@
         <v>194.3824756748546</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748546</v>
+        <v>144.6552853034071</v>
       </c>
       <c r="X15" t="n">
         <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748546</v>
+        <v>101.3349878604212</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959616282545</v>
@@ -28509,25 +28509,25 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176846</v>
+        <v>188.5200605953729</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383527</v>
+        <v>153.4855082474397</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916059</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397045</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O16" t="n">
-        <v>158.8478443507811</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P16" t="n">
-        <v>69.65451754924364</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>155.9658824820046</v>
       </c>
       <c r="R16" t="n">
         <v>194.3824756748546</v>
@@ -28582,43 +28582,43 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
+        <v>284.9671526670163</v>
+      </c>
+      <c r="J17" t="n">
+        <v>75.87088762177223</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.362241946156963</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13.54892393491819</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>88.55297193870592</v>
+      </c>
+      <c r="R17" t="n">
+        <v>194.2075003718243</v>
+      </c>
+      <c r="S17" t="n">
         <v>320.879783609152</v>
-      </c>
-      <c r="J17" t="n">
-        <v>75.87088762177224</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.362241946156985</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>13.54892393491821</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>88.55297193870595</v>
-      </c>
-      <c r="R17" t="n">
-        <v>194.2075003718244</v>
-      </c>
-      <c r="S17" t="n">
-        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>307.8443607092417</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.70119612406128</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>109.3917483570554</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388631915159</v>
@@ -28664,7 +28664,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.136586121265601</v>
       </c>
       <c r="R18" t="n">
         <v>12.31403934127076</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072119</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9477822055827</v>
+        <v>107.4467602861919</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276917808945</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,7 +28706,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>95.26361616586615</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,16 +28749,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O19" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P19" t="n">
         <v>57.89645227716782</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I20" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>133.5655652723019</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156963</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491819</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870595</v>
+        <v>210.6022702123104</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2075003718244</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S20" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>320.879783609152</v>
+        <v>266.0787615091361</v>
       </c>
       <c r="U20" t="n">
-        <v>250.149683058712</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="21">
@@ -28886,13 +28886,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.77827356619522</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.77414084632389</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>99.30717242864296</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H21" t="n">
         <v>125.6800758778345</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>12.31403934127076</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072119</v>
       </c>
       <c r="T21" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276917808945</v>
+        <v>135.8632559827693</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>118.5996226417978</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28986,16 +28986,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M22" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N22" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O22" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P22" t="n">
         <v>57.89645227716782</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I23" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156963</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.04586090844778</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491821</v>
+        <v>13.54892393491819</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.6022702123105</v>
+        <v>210.6022702123102</v>
       </c>
       <c r="R23" t="n">
-        <v>210.1365788222489</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S23" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>250.149683058712</v>
+        <v>320.4937752420532</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.7011961240612</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127067</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072134</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9477822055827</v>
+        <v>113.5833464074577</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276917808945</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>95.26361616586607</v>
+        <v>95.2636161658663</v>
       </c>
       <c r="Y24" t="n">
-        <v>173.9525953711526</v>
+        <v>101.3349878604213</v>
       </c>
     </row>
     <row r="25">
@@ -29223,16 +29223,16 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M25" t="n">
-        <v>24.4623589180015</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N25" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O25" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P25" t="n">
         <v>57.89645227716782</v>
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>176.6315428303171</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29396,19 +29396,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>212.9171572481403</v>
@@ -29420,7 +29420,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>97.09353687296388</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="28">
@@ -29451,25 +29451,25 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
-        <v>212.9171572481403</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M28" t="n">
-        <v>119.7540877164151</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N28" t="n">
-        <v>15.7835913661001</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O28" t="n">
-        <v>36.79854607717667</v>
+        <v>84.86226464798767</v>
       </c>
       <c r="P28" t="n">
         <v>57.89645227716782</v>
@@ -29551,13 +29551,13 @@
         <v>212.9171572481404</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481389</v>
       </c>
       <c r="Q29" t="n">
         <v>212.9171572481404</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9171572481394</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="S29" t="n">
         <v>212.9171572481404</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>140.4648799798417</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481404</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.9171572481404</v>
@@ -29651,13 +29651,13 @@
         <v>212.9171572481404</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.409812928499775</v>
+        <v>212.9171572481404</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29688,25 +29688,25 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>212.9171572481404</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176846</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="L31" t="n">
-        <v>212.9171572481404</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M31" t="n">
-        <v>31.29099033942851</v>
+        <v>24.46235891800149</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7835913661001</v>
+        <v>59.39573706450859</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P31" t="n">
         <v>57.89645227716782</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,13 +29834,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
         <v>125.6800758778345</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29885,16 +29885,16 @@
         <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="W33" t="n">
-        <v>212.9171572481403</v>
-      </c>
-      <c r="X33" t="n">
-        <v>75.89242786120101</v>
-      </c>
       <c r="Y33" t="n">
-        <v>212.9171572481403</v>
+        <v>10.54639904976565</v>
       </c>
     </row>
     <row r="34">
@@ -29928,31 +29928,31 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8682098941347</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
+        <v>66.47076232176846</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31.43620997383526</v>
+      </c>
+      <c r="M34" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="L34" t="n">
-        <v>31.43620997383527</v>
-      </c>
-      <c r="M34" t="n">
-        <v>24.4623589180015</v>
-      </c>
       <c r="N34" t="n">
-        <v>15.7835913661001</v>
+        <v>54.14369042304554</v>
       </c>
       <c r="O34" t="n">
-        <v>36.79854607717667</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P34" t="n">
         <v>57.89645227716782</v>
       </c>
       <c r="Q34" t="n">
+        <v>126.8139378168763</v>
+      </c>
+      <c r="R34" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="R34" t="n">
-        <v>203.2135377342752</v>
       </c>
       <c r="S34" t="n">
         <v>212.9171572481403</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
-        <v>248.0932339118652</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>248.0932339118652</v>
+        <v>106.7351702897207</v>
       </c>
       <c r="K35" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L35" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>245.3274290416894</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="P35" t="n">
-        <v>187.053595736465</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118652</v>
+        <v>88.55297193870598</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118652</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118652</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="36">
@@ -30068,16 +30068,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H36" t="n">
         <v>125.6800758778345</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
@@ -30116,19 +30116,19 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>115.0564267190856</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118652</v>
+        <v>188.6858928792669</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30180,31 +30180,31 @@
         <v>15.78359136610012</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717668</v>
+        <v>108.5207876948083</v>
       </c>
       <c r="P37" t="n">
         <v>57.89645227716784</v>
       </c>
       <c r="Q37" t="n">
-        <v>211.2752516528057</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R37" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3541616935673</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T37" t="n">
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J38" t="n">
-        <v>133.1678621964242</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K38" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>116.5449500608504</v>
       </c>
       <c r="N38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118652</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30353,22 +30353,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>240.7743566456153</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>112.3550163804908</v>
       </c>
     </row>
     <row r="40">
@@ -30381,10 +30381,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>248.0932339118652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>148.0079111467473</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30402,7 +30402,7 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8993073508208</v>
+        <v>204.3606211867502</v>
       </c>
       <c r="K40" t="n">
         <v>66.47076232176849</v>
@@ -30435,13 +30435,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,7 +30481,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5960845356529</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K41" t="n">
         <v>240.5960845356529</v>
@@ -30490,16 +30490,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>49.70367713529431</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>240.5960845356529</v>
+        <v>214.4288740491755</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5960845356529</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30584,13 +30584,13 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4841495043256</v>
+        <v>50.48779490207852</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276917808945</v>
@@ -30599,13 +30599,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.92168817427762</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30660,13 +30660,13 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
-        <v>188.55408718353</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R43" t="n">
-        <v>240.5960845356529</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S43" t="n">
-        <v>240.5960845356529</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T43" t="n">
         <v>223.7409925368498</v>
@@ -30724,7 +30724,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>240.5960845356529</v>
@@ -30733,22 +30733,22 @@
         <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>36.15475320037633</v>
       </c>
       <c r="P44" t="n">
-        <v>13.54892393491826</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.55297193870598</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>219.6986508843551</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>32.80261879206762</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>72.11799448014901</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I45" t="n">
         <v>107.1657389737211</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265637</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
@@ -30836,7 +30836,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30879,31 +30879,31 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800152</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610013</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717669</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P46" t="n">
-        <v>162.2610712872849</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>225.9366339849078</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3541616935673</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T46" t="n">
         <v>223.7409925368498</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N11" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S11" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H13" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U13" t="n">
         <v>0.01021382725584501</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N14" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R14" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S14" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H16" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U16" t="n">
         <v>0.01021382725584501</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N17" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S17" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H19" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U19" t="n">
         <v>0.01021382725584501</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N20" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R20" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S20" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H22" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U22" t="n">
         <v>0.01021382725584501</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N23" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R23" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S23" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H25" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U25" t="n">
         <v>0.01021382725584501</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N26" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R26" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S26" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H28" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U28" t="n">
         <v>0.01021382725584501</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N29" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R29" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S29" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H31" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U31" t="n">
         <v>0.01021382725584501</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852895</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282596</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483339</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260456</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771011</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252027</v>
       </c>
       <c r="N32" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403173</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971425</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138991</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050419</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R32" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S32" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572294</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201105</v>
+        <v>1.827385432201106</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.2233552035759312</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062283</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995876</v>
+        <v>7.69008047399588</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1021685974962</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046699</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009448</v>
+        <v>56.5931145200945</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361201</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214428</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614333</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047401</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904916</v>
+        <v>0.1872534996904917</v>
       </c>
       <c r="H34" t="n">
         <v>1.664853842702736</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055878</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494985</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034818</v>
+        <v>27.83948849034819</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627316</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46743102897968</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529363</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67992714226471</v>
+        <v>15.67992714226472</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901559</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242475</v>
+        <v>3.263317808242476</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411914</v>
       </c>
       <c r="U34" t="n">
         <v>0.01021382725584501</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.417449556185289</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J44" t="n">
-        <v>35.4305092692812</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K44" t="n">
-        <v>53.1011489826045</v>
+        <v>53.10114898260452</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252021</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403164</v>
+        <v>74.48656793403167</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971416</v>
+        <v>70.33555390971419</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138983</v>
+        <v>60.02976799138986</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050416</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372418</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T44" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482311</v>
+        <v>0.03339596449482313</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I45" t="n">
-        <v>7.69008047399587</v>
+        <v>7.690080473995874</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749618</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046695</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009443</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337338</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361196</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214422</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T45" t="n">
-        <v>0.900278210904739</v>
+        <v>0.9002782109047394</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872534996904914</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055874</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494983</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627315</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897965</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q46" t="n">
         <v>15.6799271422647</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901549</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242472</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411904</v>
+        <v>0.8000831350411908</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530825</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M11" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860303</v>
       </c>
       <c r="N11" t="n">
-        <v>78.0034373651565</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P11" t="n">
-        <v>11.92318427313216</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361488</v>
+        <v>70.34409218334144</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030304113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L12" t="n">
-        <v>119.764688815662</v>
+        <v>114.3272818606202</v>
       </c>
       <c r="M12" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="N12" t="n">
-        <v>33.83647831747474</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,13 +35550,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262977</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.68651404660034</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>108.1208494990785</v>
       </c>
       <c r="N13" t="n">
         <v>122.0492982736044</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>13.53249122507104</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.5685378579785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530824</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>117.9276633123115</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301754</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="M14" t="n">
-        <v>83.562854548603</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N14" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.565347393170735</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.1749753030303083</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
@@ -35735,10 +35735,10 @@
         <v>122.0492982736044</v>
       </c>
       <c r="N15" t="n">
+        <v>80.12873768029881</v>
+      </c>
+      <c r="O15" t="n">
         <v>122.0492982736044</v>
-      </c>
-      <c r="O15" t="n">
-        <v>119.4026229528154</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414394</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.455593456408</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="M16" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.75806527207581</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1519446651283</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.28369907349909</v>
+        <v>44.37106813136339</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M17" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860303</v>
       </c>
       <c r="N17" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.60730859266531</v>
       </c>
       <c r="T17" t="n">
         <v>98.46087464136508</v>
       </c>
       <c r="U17" t="n">
-        <v>57.6946776505297</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251659</v>
+        <v>33.83647831747473</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
@@ -35975,10 +35975,10 @@
         <v>122.0492982736044</v>
       </c>
       <c r="O18" t="n">
-        <v>80.12873768029881</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349909</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.69467765052967</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M20" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860303</v>
       </c>
       <c r="N20" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515653</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136508</v>
+        <v>43.6598525413492</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.7301005504401</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251659</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>114.3272818606201</v>
       </c>
       <c r="O21" t="n">
-        <v>116.6118913185626</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301754</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M23" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860303</v>
       </c>
       <c r="N23" t="n">
-        <v>78.0034373651565</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351542</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="R23" t="n">
-        <v>15.92907845042456</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.34409218334116</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.27388527251659</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L24" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>116.6118913185628</v>
+        <v>116.6118913185621</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631591</v>
+        <v>18.70965687631592</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251659</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.20893820521672</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.01784989731949</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>95.29172879841356</v>
+        <v>188.4547983301387</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.06371857081101</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0462696263681</v>
+        <v>137.0462696263682</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019834</v>
+        <v>207.5549153019835</v>
       </c>
       <c r="L29" t="n">
-        <v>261.8032688511579</v>
+        <v>261.803268851158</v>
       </c>
       <c r="M29" t="n">
         <v>296.4800117967434</v>
@@ -36844,16 +36844,16 @@
         <v>290.9205946132969</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816559</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3682333132222</v>
+        <v>199.3682333132207</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094345</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631503</v>
+        <v>18.70965687631609</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251659</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45997627616808</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36984,22 +36984,22 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.20893820521683</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.446394926372</v>
       </c>
       <c r="L31" t="n">
-        <v>181.4809472743051</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6.828631421427013</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>43.6121456984085</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511579</v>
       </c>
       <c r="M32" t="n">
         <v>296.4800117967433</v>
@@ -37081,16 +37081,16 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P32" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251659</v>
+        <v>39.27388527251661</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.968902543313979</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4463949263718</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>38.36009905694545</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.10321943126399</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.703619513865103</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212221</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900929</v>
+        <v>30.86428266794846</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9793455148827</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M35" t="n">
-        <v>83.56285454860294</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N35" t="n">
         <v>78.00343736515646</v>
@@ -37321,19 +37321,19 @@
         <v>284.4674873453805</v>
       </c>
       <c r="P35" t="n">
-        <v>173.5046718015468</v>
+        <v>234.5443099769469</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731592</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.88573354004076</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537844</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407822</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37476,19 +37476,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>71.72224161763161</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.46131383592936</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.73907221829779</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212221</v>
+        <v>7.497149376212192</v>
       </c>
       <c r="J38" t="n">
-        <v>57.2969745746519</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L38" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148826</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860294</v>
+        <v>200.1078046094534</v>
       </c>
       <c r="N38" t="n">
-        <v>326.0966712770216</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P38" t="n">
         <v>234.5443099769469</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731592</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004079</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537844</v>
+        <v>20.82075889537841</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407822</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37677,10 +37677,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>81.63605293989281</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.825260896036561</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>84.4613138359294</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138807</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>235.2338425894959</v>
@@ -37786,28 +37786,28 @@
         <v>48.88611160301748</v>
       </c>
       <c r="M41" t="n">
-        <v>133.2665316838973</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008094</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0471606007347</v>
+        <v>200.8799501142572</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.043112596947</v>
+        <v>152.0431125969469</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382858</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32360951916623</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17717556786601</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37956,13 +37956,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.74014936665371</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="R43" t="n">
-        <v>37.38254680137773</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.241922842085611</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4821961386704</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M44" t="n">
         <v>324.1589390842559</v>
@@ -38029,22 +38029,22 @@
         <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351534</v>
+        <v>72.5290066338917</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>25.49115051253071</v>
+        <v>46.38858416382856</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251657</v>
+        <v>39.27388527251658</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38111,7 +38111,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38190,16 +38190,16 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>104.3646190101171</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>99.12269616803157</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.241922842085583</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
